--- a/Knowork Testcases.xlsx
+++ b/Knowork Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E3DAA-9E08-4745-8FA3-6BE255F36E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC7683-E5D5-41FD-AED0-95F5DA3811C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6094E363-2F92-4601-A241-7BB83CCC890A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6094E363-2F92-4601-A241-7BB83CCC890A}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -2350,9 +2350,6 @@
     <t>System should fire validation message for Blank logo "Please select logo."</t>
   </si>
   <si>
-    <t>User successfully logged in and redirect to dashboard</t>
-  </si>
-  <si>
     <t>System should fire validation message for uncheck the checkbox "Please check the checkbox."</t>
   </si>
   <si>
@@ -2501,6 +2498,9 @@
   </si>
   <si>
     <t>System should fire validation message "please uplpoad valid image"</t>
+  </si>
+  <si>
+    <t>User successfully create space page and redirect to dashboard</t>
   </si>
 </sst>
 </file>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A54CCF-A91E-4DA0-8C41-452592804DFC}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5522,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180F55F9-C7EE-4942-9843-CED13BDA7169}">
   <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -6504,7 +6504,7 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -6882,7 +6882,7 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -6910,7 +6910,7 @@
         <v>422</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>400</v>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -7840,15 +7840,15 @@
         <v>422</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -7876,15 +7876,15 @@
         <v>422</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -7912,15 +7912,15 @@
         <v>422</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -7948,15 +7948,15 @@
         <v>422</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -7984,15 +7984,15 @@
         <v>422</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -8020,15 +8020,15 @@
         <v>422</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J68" s="18"/>
       <c r="K68" s="18"/>
@@ -8954,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A64602B-9CED-4FF4-B9B8-AE165B8D500E}">
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9066,7 +9066,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -9102,7 +9102,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
